--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
@@ -6869,83 +6869,83 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>9</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Info:</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>Info:</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -11526,312 +11526,312 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="inlineStr">
+      <c r="D214" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F216" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>2</v>
-      </c>
-      <c r="E216" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>18</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>3</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>18</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>4</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>18</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>5</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/42/word_level_predictions_42.xlsx
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,59 +6893,59 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -11526,312 +11526,312 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>18</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>18</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F215" s="2" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>18</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>2</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F216" s="2" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>18</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>3</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F217" s="2" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>18</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>4</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>18</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>5</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F219" s="2" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
